--- a/data/TC003.xlsx
+++ b/data/TC003.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
@@ -16,18 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>DemoSalesManager</t>
+  </si>
+  <si>
+    <t>crmsfa</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
   <si>
     <t>No records to display</t>
   </si>
   <si>
-    <t>error masg</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>@</t>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -51,10 +63,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -95,16 +109,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -163,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,7 +213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,40 +422,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD22"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
